--- a/细化阶段文档/分销系统功能列表140423.xlsx
+++ b/细化阶段文档/分销系统功能列表140423.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="8355" activeTab="1"/>
@@ -610,11 +610,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -848,7 +848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -981,6 +981,108 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1005,151 +1107,58 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1158,6 +1167,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1479,7 +1493,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1529,7 +1543,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1548,14 +1562,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
@@ -1570,106 +1584,106 @@
     <col min="19" max="19" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="52" t="s">
+      <c r="E1" s="81"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="57" t="s">
+      <c r="M1" s="85"/>
+      <c r="N1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="50" t="s">
+      <c r="O1" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="54" t="s">
+      <c r="P1" s="85"/>
+      <c r="Q1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="78" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="58"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="65"/>
       <c r="L2" s="18" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="58"/>
+      <c r="N2" s="65"/>
       <c r="O2" s="18" t="s">
         <v>17</v>
       </c>
       <c r="P2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-    </row>
-    <row r="3" spans="1:19" ht="18" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="Q2" s="67"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+    </row>
+    <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="59" t="s">
         <v>146</v>
       </c>
       <c r="C3" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="73"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="97"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
       <c r="J3" s="4"/>
@@ -1683,18 +1697,18 @@
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
     </row>
-    <row r="4" spans="1:19" ht="24">
-      <c r="A4" s="74"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="72" t="s">
+    <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.15">
+      <c r="A4" s="56"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="73"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="98"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -1708,18 +1722,18 @@
       <c r="R4" s="20"/>
       <c r="S4" s="20"/>
     </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1">
-      <c r="A5" s="74"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="72" t="s">
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="56"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="73"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="98"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
@@ -1733,20 +1747,20 @@
       <c r="R5" s="20"/>
       <c r="S5" s="20"/>
     </row>
-    <row r="6" spans="1:19" ht="18" customHeight="1">
-      <c r="A6" s="74"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="64" t="s">
+    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="56"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="73"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="98"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
@@ -1760,18 +1774,18 @@
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
     </row>
-    <row r="7" spans="1:19" ht="18" customHeight="1">
-      <c r="A7" s="74"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="81" t="s">
+    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="56"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="73"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="98"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="8"/>
@@ -1785,18 +1799,18 @@
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
     </row>
-    <row r="8" spans="1:19" ht="18" customHeight="1">
-      <c r="A8" s="74"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="81" t="s">
+    <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="56"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="73"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="99"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="8"/>
@@ -1810,18 +1824,18 @@
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
     </row>
-    <row r="9" spans="1:19" ht="18" customHeight="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="77" t="s">
+    <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="56"/>
+      <c r="B9" s="59" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="73"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="3" t="s">
         <v>35</v>
       </c>
@@ -1839,16 +1853,16 @@
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
     </row>
-    <row r="10" spans="1:19" ht="18" customHeight="1">
-      <c r="A10" s="74"/>
-      <c r="B10" s="77"/>
+    <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="56"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="73"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="34" t="s">
         <v>135</v>
       </c>
@@ -1866,14 +1880,14 @@
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
     </row>
-    <row r="11" spans="1:19" ht="18" customHeight="1">
-      <c r="A11" s="74"/>
-      <c r="B11" s="77"/>
+    <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="56"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="34" t="s">
         <v>137</v>
       </c>
@@ -1891,16 +1905,16 @@
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
     </row>
-    <row r="12" spans="1:19" ht="18" customHeight="1">
-      <c r="A12" s="74"/>
-      <c r="B12" s="77"/>
+    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="56"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="73"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="6" t="s">
         <v>36</v>
       </c>
@@ -1918,16 +1932,16 @@
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
     </row>
-    <row r="13" spans="1:19" ht="18" customHeight="1">
-      <c r="A13" s="74"/>
-      <c r="B13" s="77"/>
+    <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="56"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="73"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="6" t="s">
         <v>38</v>
       </c>
@@ -1945,18 +1959,18 @@
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
     </row>
-    <row r="14" spans="1:19" ht="18" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="77" t="s">
+    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="56"/>
+      <c r="B14" s="59" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="73"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="3" t="s">
         <v>41</v>
       </c>
@@ -1974,16 +1988,16 @@
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
     </row>
-    <row r="15" spans="1:19" ht="18" customHeight="1">
-      <c r="A15" s="74"/>
-      <c r="B15" s="77"/>
+    <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="73"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="3" t="s">
         <v>44</v>
       </c>
@@ -2001,11 +2015,11 @@
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
     </row>
-    <row r="16" spans="1:19" ht="18" customHeight="1">
-      <c r="A16" s="74"/>
-      <c r="B16" s="77"/>
+    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="56"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="62"/>
-      <c r="D16" s="70" t="s">
+      <c r="D16" s="76" t="s">
         <v>104</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -2028,11 +2042,11 @@
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
     </row>
-    <row r="17" spans="1:19" ht="18" customHeight="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="77"/>
+    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="56"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="62"/>
-      <c r="D17" s="71"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="9" t="s">
         <v>47</v>
       </c>
@@ -2053,18 +2067,18 @@
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
     </row>
-    <row r="18" spans="1:19" ht="18" customHeight="1">
-      <c r="A18" s="74"/>
+    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="56"/>
       <c r="B18" s="39" t="s">
         <v>138</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="61"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="34" t="s">
         <v>106</v>
       </c>
@@ -2082,18 +2096,18 @@
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="1:19" ht="18" customHeight="1">
-      <c r="A19" s="75"/>
-      <c r="B19" s="79" t="s">
+    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="57"/>
+      <c r="B19" s="61" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="61"/>
+      <c r="E19" s="52"/>
       <c r="F19" s="40" t="s">
         <v>141</v>
       </c>
@@ -2111,14 +2125,14 @@
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
     </row>
-    <row r="20" spans="1:19" ht="18" customHeight="1">
-      <c r="A20" s="75"/>
-      <c r="B20" s="79"/>
+    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="57"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
       <c r="F20" s="40" t="s">
         <v>140</v>
       </c>
@@ -2136,18 +2150,18 @@
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
     </row>
-    <row r="21" spans="1:19" ht="18" customHeight="1">
-      <c r="A21" s="76"/>
+    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="58"/>
       <c r="B21" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="61"/>
+      <c r="E21" s="52"/>
       <c r="F21" s="15" t="s">
         <v>92</v>
       </c>
@@ -2165,14 +2179,14 @@
       <c r="R21" s="24"/>
       <c r="S21" s="24"/>
     </row>
-    <row r="22" spans="1:19" ht="18" customHeight="1">
-      <c r="A22" s="76"/>
+    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="58"/>
       <c r="B22" s="62"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="67" t="s">
+      <c r="C22" s="63"/>
+      <c r="D22" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="67"/>
+      <c r="E22" s="73"/>
       <c r="F22" s="16" t="s">
         <v>87</v>
       </c>
@@ -2190,14 +2204,14 @@
       <c r="R22" s="26"/>
       <c r="S22" s="26"/>
     </row>
-    <row r="23" spans="1:19" ht="18" customHeight="1">
-      <c r="A23" s="76"/>
+    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="58"/>
       <c r="B23" s="62"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="69" t="s">
+      <c r="C23" s="63"/>
+      <c r="D23" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="E23" s="67"/>
+      <c r="E23" s="73"/>
       <c r="F23" s="41" t="s">
         <v>143</v>
       </c>
@@ -2217,27 +2231,16 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A23"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="N1:N2"/>
@@ -2254,16 +2257,27 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A23"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
@@ -2282,14 +2296,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
@@ -2305,106 +2319,106 @@
     <col min="20" max="20" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="52" t="s">
+      <c r="E1" s="81"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="57" t="s">
+      <c r="N1" s="85"/>
+      <c r="O1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="P1" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="54" t="s">
+      <c r="Q1" s="85"/>
+      <c r="R1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="78" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="58"/>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="65"/>
       <c r="M2" s="18" t="s">
         <v>15</v>
       </c>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="58"/>
+      <c r="O2" s="65"/>
       <c r="P2" s="18" t="s">
         <v>17</v>
       </c>
       <c r="Q2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-    </row>
-    <row r="3" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="R2" s="67"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+    </row>
+    <row r="3" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="59" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="73"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
@@ -2423,14 +2437,14 @@
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
     </row>
-    <row r="4" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="59" t="s">
+    <row r="4" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="93"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="73"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="6" t="s">
         <v>26</v>
       </c>
@@ -2449,18 +2463,18 @@
       <c r="S4" s="20"/>
       <c r="T4" s="20"/>
     </row>
-    <row r="5" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="77" t="s">
+    <row r="5" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="93"/>
+      <c r="B5" s="59" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="83"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="3" t="s">
         <v>51</v>
       </c>
@@ -2479,14 +2493,14 @@
       <c r="S5" s="20"/>
       <c r="T5" s="20"/>
     </row>
-    <row r="6" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A6" s="92"/>
-      <c r="B6" s="77"/>
+    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="93"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="90"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -2503,16 +2517,16 @@
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
     </row>
-    <row r="7" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A7" s="92"/>
-      <c r="B7" s="77"/>
+    <row r="7" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="93"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="83"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="3" t="s">
         <v>53</v>
       </c>
@@ -2531,16 +2545,16 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
     </row>
-    <row r="8" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A8" s="92"/>
-      <c r="B8" s="77"/>
+    <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="93"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="83"/>
+      <c r="E8" s="87"/>
       <c r="F8" s="32" t="s">
         <v>128</v>
       </c>
@@ -2559,15 +2573,15 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
     </row>
-    <row r="9" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A9" s="92"/>
-      <c r="B9" s="70" t="s">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="93"/>
+      <c r="B9" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="87" t="s">
         <v>55</v>
       </c>
       <c r="E9" s="22" t="s">
@@ -2591,11 +2605,11 @@
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
     </row>
-    <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="92"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="83"/>
+    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="93"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="87"/>
       <c r="E10" s="22" t="s">
         <v>57</v>
       </c>
@@ -2617,16 +2631,16 @@
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
     </row>
-    <row r="11" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A11" s="92"/>
-      <c r="B11" s="70"/>
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="93"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="83"/>
+      <c r="E11" s="87"/>
       <c r="F11" s="6"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
@@ -2643,18 +2657,18 @@
       <c r="S11" s="21"/>
       <c r="T11" s="21"/>
     </row>
-    <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="92"/>
-      <c r="B12" s="70"/>
+    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="93"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="84"/>
-      <c r="E12" s="83"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
       <c r="F12" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="100"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="35"/>
       <c r="I12" s="8"/>
       <c r="J12" s="10"/>
@@ -2669,19 +2683,19 @@
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
     </row>
-    <row r="13" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A13" s="92"/>
-      <c r="B13" s="62" t="s">
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="93"/>
+      <c r="B13" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="102"/>
+      <c r="F13" s="103" t="s">
         <v>60</v>
       </c>
       <c r="G13" s="12"/>
@@ -2699,15 +2713,15 @@
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
     </row>
-    <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="92"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="84" t="s">
+    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="93"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="102"/>
+      <c r="F14" s="103" t="s">
         <v>61</v>
       </c>
       <c r="G14" s="12"/>
@@ -2725,15 +2739,15 @@
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
     </row>
-    <row r="15" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A15" s="92"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="84" t="s">
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="93"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="102"/>
+      <c r="F15" s="103" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="12"/>
@@ -2751,15 +2765,15 @@
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
     </row>
-    <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="92"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="84" t="s">
+    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="93"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="102"/>
+      <c r="F16" s="103" t="s">
         <v>63</v>
       </c>
       <c r="G16" s="12"/>
@@ -2777,15 +2791,15 @@
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
     </row>
-    <row r="17" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A17" s="92"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="84" t="s">
+    <row r="17" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="93"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="32" t="s">
+      <c r="E17" s="102"/>
+      <c r="F17" s="103" t="s">
         <v>122</v>
       </c>
       <c r="G17" s="32"/>
@@ -2803,18 +2817,18 @@
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
     </row>
-    <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="92"/>
-      <c r="B18" s="63" t="s">
+    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="93"/>
+      <c r="B18" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="83"/>
+      <c r="E18" s="87"/>
       <c r="F18" s="32" t="s">
         <v>125</v>
       </c>
@@ -2833,14 +2847,14 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
     </row>
-    <row r="19" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A19" s="92"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="86" t="s">
+    <row r="19" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="93"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="87"/>
+      <c r="E19" s="98"/>
       <c r="F19" s="32" t="s">
         <v>131</v>
       </c>
@@ -2859,18 +2873,18 @@
       <c r="S19" s="23"/>
       <c r="T19" s="23"/>
     </row>
-    <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="92"/>
+    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="93"/>
       <c r="B20" s="62" t="s">
         <v>65</v>
       </c>
       <c r="C20" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="83" t="s">
+      <c r="D20" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="83"/>
+      <c r="E20" s="87"/>
       <c r="F20" s="25" t="s">
         <v>68</v>
       </c>
@@ -2889,14 +2903,14 @@
       <c r="S20" s="23"/>
       <c r="T20" s="23"/>
     </row>
-    <row r="21" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A21" s="92"/>
+    <row r="21" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="93"/>
       <c r="B21" s="62"/>
       <c r="C21" s="62"/>
-      <c r="D21" s="83" t="s">
+      <c r="D21" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="83"/>
+      <c r="E21" s="87"/>
       <c r="F21" s="25" t="s">
         <v>70</v>
       </c>
@@ -2915,14 +2929,14 @@
       <c r="S21" s="23"/>
       <c r="T21" s="23"/>
     </row>
-    <row r="22" spans="1:20" ht="27" customHeight="1">
-      <c r="A22" s="92"/>
+    <row r="22" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="93"/>
       <c r="B22" s="62"/>
       <c r="C22" s="62"/>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="83"/>
+      <c r="E22" s="87"/>
       <c r="F22" s="10" t="s">
         <v>72</v>
       </c>
@@ -2941,14 +2955,14 @@
       <c r="S22" s="24"/>
       <c r="T22" s="24"/>
     </row>
-    <row r="23" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A23" s="92"/>
+    <row r="23" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="93"/>
       <c r="B23" s="62"/>
       <c r="C23" s="62"/>
-      <c r="D23" s="83" t="s">
+      <c r="D23" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="83"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="10" t="s">
         <v>74</v>
       </c>
@@ -2967,14 +2981,14 @@
       <c r="S23" s="24"/>
       <c r="T23" s="24"/>
     </row>
-    <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="92"/>
+    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="93"/>
       <c r="B24" s="62"/>
       <c r="C24" s="62"/>
-      <c r="D24" s="83" t="s">
+      <c r="D24" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="83"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="10" t="s">
         <v>76</v>
       </c>
@@ -2993,14 +3007,14 @@
       <c r="S24" s="24"/>
       <c r="T24" s="24"/>
     </row>
-    <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="92"/>
+    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="93"/>
       <c r="B25" s="62"/>
       <c r="C25" s="62"/>
-      <c r="D25" s="84" t="s">
+      <c r="D25" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="83"/>
+      <c r="E25" s="87"/>
       <c r="F25" s="10" t="s">
         <v>77</v>
       </c>
@@ -3019,14 +3033,14 @@
       <c r="S25" s="24"/>
       <c r="T25" s="24"/>
     </row>
-    <row r="26" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A26" s="92"/>
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="93"/>
       <c r="B26" s="62"/>
       <c r="C26" s="62"/>
-      <c r="D26" s="83" t="s">
+      <c r="D26" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="83"/>
+      <c r="E26" s="87"/>
       <c r="F26" s="10" t="s">
         <v>78</v>
       </c>
@@ -3045,18 +3059,18 @@
       <c r="S26" s="24"/>
       <c r="T26" s="24"/>
     </row>
-    <row r="27" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A27" s="92"/>
+    <row r="27" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="93"/>
       <c r="B27" s="62" t="s">
         <v>79</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="83" t="s">
+      <c r="D27" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="83"/>
+      <c r="E27" s="87"/>
       <c r="F27" s="10" t="s">
         <v>82</v>
       </c>
@@ -3075,14 +3089,14 @@
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
     </row>
-    <row r="28" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A28" s="92"/>
+    <row r="28" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="93"/>
       <c r="B28" s="62"/>
       <c r="C28" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="90"/>
       <c r="F28" s="38" t="s">
         <v>129</v>
       </c>
@@ -3101,16 +3115,16 @@
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
     </row>
-    <row r="29" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A29" s="92"/>
+    <row r="29" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="93"/>
       <c r="B29" s="62"/>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="83" t="s">
+      <c r="D29" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="83"/>
+      <c r="E29" s="87"/>
       <c r="F29" s="38" t="s">
         <v>100</v>
       </c>
@@ -3129,14 +3143,14 @@
       <c r="S29" s="24"/>
       <c r="T29" s="24"/>
     </row>
-    <row r="30" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A30" s="92"/>
+    <row r="30" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="93"/>
       <c r="B30" s="62"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="83" t="s">
+      <c r="C30" s="63"/>
+      <c r="D30" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="83"/>
+      <c r="E30" s="87"/>
       <c r="F30" s="38" t="s">
         <v>101</v>
       </c>
@@ -3155,14 +3169,14 @@
       <c r="S30" s="24"/>
       <c r="T30" s="24"/>
     </row>
-    <row r="31" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A31" s="92"/>
+    <row r="31" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="93"/>
       <c r="B31" s="62"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="83" t="s">
+      <c r="C31" s="63"/>
+      <c r="D31" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="83"/>
+      <c r="E31" s="87"/>
       <c r="F31" s="10" t="s">
         <v>87</v>
       </c>
@@ -3181,16 +3195,16 @@
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
     </row>
-    <row r="32" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A32" s="92"/>
+    <row r="32" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="93"/>
       <c r="B32" s="62"/>
-      <c r="C32" s="79" t="s">
+      <c r="C32" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="84" t="s">
+      <c r="D32" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="83"/>
+      <c r="E32" s="87"/>
       <c r="F32" s="10" t="s">
         <v>88</v>
       </c>
@@ -3209,14 +3223,14 @@
       <c r="S32" s="24"/>
       <c r="T32" s="24"/>
     </row>
-    <row r="33" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A33" s="93"/>
+    <row r="33" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="94"/>
       <c r="B33" s="62"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="83" t="s">
+      <c r="C33" s="96"/>
+      <c r="D33" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="83"/>
+      <c r="E33" s="87"/>
       <c r="F33" s="10" t="s">
         <v>90</v>
       </c>
@@ -3237,11 +3251,47 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="P1:Q1"/>
@@ -3258,47 +3308,11 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
@@ -3313,7 +3327,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
